--- a/data/trans_camb/P25_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +690,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +773,67 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,0</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,0</t>
+          <t>-3,19; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 0,0</t>
+          <t>-5,85; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,45</t>
+          <t>-5,93; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,68; 4,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,63</t>
+          <t>-5,73; -0,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 1,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 0,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 0,77</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 0,95</t>
         </is>
       </c>
     </row>
@@ -748,37 +856,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-14,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>38,32%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-59,07%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-13,37%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,0</t>
+          <t>-3,46; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,86</t>
+          <t>-2,23; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,63</t>
+          <t>-0,94; 3,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,11</t>
+          <t>-1,85; 3,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,4</t>
+          <t>-3,38; 2,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,31</t>
+          <t>-3,04; 2,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,76</t>
+          <t>-3,67; 1,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,72</t>
+          <t>-3,48; 1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,26</t>
+          <t>-0,47; 6,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 5,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 0,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 0,68</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 1,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 4,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 3,13</t>
         </is>
       </c>
     </row>
@@ -959,42 +1187,72 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-30,99%</t>
+          <t>-20,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>180,05%</t>
+          <t>132,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-43,68%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>-45,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-37,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>234,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-32,55%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-39,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>124,85%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1290,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-99,02; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1042,12 +1300,42 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 255,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,1; 693,47</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-81,54; 561,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 248,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 373,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-46,7; 898,34</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-64,27; 387,25</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,11</t>
+          <t>-1,59; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,48</t>
+          <t>-0,75; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,32</t>
+          <t>-0,83; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,1</t>
+          <t>-0,1; 12,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,95</t>
+          <t>-3,95; 8,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,93</t>
+          <t>-2,28; 1,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,24</t>
+          <t>-2,41; 1,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,56</t>
+          <t>-3,01; 1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,56</t>
+          <t>0,18; 5,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 4,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 1,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 1,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,82</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 7,99</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 5,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,84%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>107,18%</t>
+          <t>107,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>490,72%</t>
+          <t>135,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>231,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>167,26%</t>
+          <t>234,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>237,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>42,92%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1606,72 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-40,56; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,97; 266,87</t>
+          <t>-59,93; 1464,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,03; 273,41</t>
+          <t>-82,6; 377,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 466,66</t>
+          <t>-74,76; 198,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 182,35</t>
+          <t>-80,04; 178,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,35; 225,67</t>
+          <t>-88,15; 186,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 756,94</t>
+          <t>-36,3; 1020,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-61,72; 299,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-61,32; 171,51</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-57,6; 250,0</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-57,95; 277,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 798,11</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-42,92; 242,66</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,1</t>
+          <t>-8,28; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,27</t>
+          <t>-6,51; 2,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 9,02</t>
+          <t>-2,94; 7,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,61</t>
+          <t>-6,02; 6,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,6</t>
+          <t>-6,86; 6,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,29</t>
+          <t>-4,14; 1,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,32</t>
+          <t>-4,81; 1,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,42</t>
+          <t>-2,38; 4,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,72</t>
+          <t>-4,51; 3,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 5,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 0,4</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 1,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 5,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 3,16</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 4,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-36,34%</t>
+          <t>-36,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>-16,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,14%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-38,86%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>80,63%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-32,94%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-19,98%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-6,15%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,73; 17,14</t>
+          <t>-66,93; 16,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 57,13</t>
+          <t>-54,67; 41,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 130,35</t>
+          <t>-25,02; 119,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,06; 65,83</t>
+          <t>-43,51; 74,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,67; 73,8</t>
+          <t>-49,05; 84,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 54,48</t>
+          <t>-70,43; 61,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 6,52</t>
+          <t>-74,05; 47,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 29,91</t>
+          <t>-42,53; 169,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 95,88</t>
+          <t>-64,03; 96,17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-34,48; 495,69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-60,05; 9,49</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 23,36</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 96,74</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-40,59; 46,86</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-36,05; 86,62</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6,47</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 8,32</t>
+          <t>-4,01; 8,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 9,48</t>
+          <t>-3,12; 9,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 18,1</t>
+          <t>1,54; 16,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 6,23</t>
+          <t>-5,26; 11,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 7,99</t>
+          <t>-8,59; 10,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 11,23</t>
+          <t>-5,07; 6,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,76</t>
+          <t>-2,6; 8,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,9</t>
+          <t>-2,24; 11,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 12,3</t>
+          <t>-3,73; 11,94</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 11,79</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 5,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 6,85</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 11,75</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 9,09</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>30,11%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>61,34%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 103,63</t>
+          <t>-27,16; 106,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 123,93</t>
+          <t>-21,47; 123,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,58; 217,8</t>
+          <t>9,25; 198,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 88,42</t>
+          <t>-23,39; 71,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 106,51</t>
+          <t>-32,14; 59,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 152,57</t>
+          <t>-41,42; 80,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 65,01</t>
+          <t>-21,59; 122,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 82,03</t>
+          <t>-19,47; 156,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,17; 144,55</t>
+          <t>-19,13; 108,6</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,39; 99,33</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 63,98</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 78,53</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 140,92</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 64,01</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 55,29</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>14,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-6,35</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-5,24</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-4,51</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 2,59</t>
+          <t>-15,75; 3,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-23,32; -2,34</t>
+          <t>-19,1; 0,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 10,25</t>
+          <t>-21,63; -1,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 0,3</t>
+          <t>3,71; 24,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 4,56</t>
+          <t>-10,62; 13,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 7,03</t>
+          <t>-15,08; 1,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -2,06</t>
+          <t>-10,89; 6,21</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -0,55</t>
+          <t>-8,13; 10,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 4,38</t>
+          <t>-10,44; 12,35</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 16,19</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,18</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 1,14</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 2,49</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 14,44</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 11,13</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-19,19%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-34,98%</t>
+          <t>-29,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-35,41%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-28,06%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>-24,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-27,33%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-22,22%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-18,32%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-15,77%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 11,02</t>
+          <t>-44,58; 15,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-57,97; -8,16</t>
+          <t>-52,77; 2,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 40,84</t>
+          <t>-60,13; -2,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 2,63</t>
+          <t>12,47; 165,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 20,23</t>
+          <t>-29,18; 54,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 31,84</t>
+          <t>-48,4; 7,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-45,03; -6,4</t>
+          <t>-35,68; 28,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-39,1; -1,29</t>
+          <t>-25,76; 47,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 16,24</t>
+          <t>-31,6; 54,47</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-20,98; 94,92</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; 1,45</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-37,18; 3,85</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-36,78; 10,22</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 69,82</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 48,32</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
           <t>-1,53</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,73</t>
+          <t>-3,38; 0,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,66</t>
+          <t>-3,55; 0,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,49</t>
+          <t>-1,9; 2,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,03</t>
+          <t>0,45; 6,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,14</t>
+          <t>-2,52; 3,85</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,95</t>
+          <t>-3,98; 0,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,42</t>
+          <t>-2,92; 1,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,36</t>
+          <t>-1,51; 3,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,5</t>
+          <t>-1,03; 4,58</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,37</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; -0,01</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 0,44</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 2,54</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,74</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,75</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-12,54%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-21,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-18,21%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 11,11</t>
+          <t>-34,94; 13,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 9,82</t>
+          <t>-36,34; 13,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 75,34</t>
+          <t>-20,59; 38,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 0,76</t>
+          <t>3,13; 80,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 14,94</t>
+          <t>-19,36; 39,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 39,74</t>
+          <t>-41,47; 1,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,84; -4,66</t>
+          <t>-31,13; 18,12</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 4,78</t>
+          <t>-15,82; 45,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 45,46</t>
+          <t>-11,05; 57,3</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 75,09</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-33,46; -0,02</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-27,78; 5,88</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 33,7</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 57,98</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 40,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
